--- a/on1/Pak Dody 2/waktu pemrosesan.xlsx
+++ b/on1/Pak Dody 2/waktu pemrosesan.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KULIAH\TUGAS AKHIR\TA1\Pewarnaan Citra\Proposal\on2\on1\Pak Dody 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BCF6D361-7BF4-41A6-913F-146C3FA1CA41}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{433248C0-32F9-4BFC-9B11-98E1E0A5F802}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3870" xr2:uid="{312391B2-76D4-4BA1-B2DB-1F73EFA14252}"/>
   </bookViews>
   <sheets>
     <sheet name="Pak Dody" sheetId="1" r:id="rId1"/>
+    <sheet name="Pak Adi" sheetId="2" r:id="rId2"/>
+    <sheet name="Pak Bambang" sheetId="3" r:id="rId3"/>
+    <sheet name="Rayiemas" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>Gambar</t>
   </si>
@@ -43,6 +46,9 @@
   </si>
   <si>
     <t>Angka asli</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -127,14 +133,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -144,6 +144,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -460,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{932674B0-1378-4FD9-B350-78E610E8997B}">
-  <dimension ref="A2:H20"/>
+  <dimension ref="A2:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,56 +483,56 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="8"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="8"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="4"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -538,11 +544,13 @@
       <c r="C6" s="2">
         <v>539.60023863149399</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="5">
+      <c r="D6" s="2">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4">
         <v>143.48839635482801</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="1">
         <v>878</v>
       </c>
@@ -557,7 +565,9 @@
       <c r="C7" s="2">
         <v>380.760476281276</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>7</v>
+      </c>
       <c r="E7" s="1">
         <v>22.366938588260599</v>
       </c>
@@ -576,7 +586,9 @@
       <c r="C8" s="2">
         <v>407.46461287515098</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>26</v>
+      </c>
       <c r="E8" s="1">
         <v>138.93962585451399</v>
       </c>
@@ -595,7 +607,9 @@
       <c r="C9" s="2">
         <v>331.95005843073398</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>15</v>
+      </c>
       <c r="E9" s="1">
         <v>31.640506940891498</v>
       </c>
@@ -612,7 +626,9 @@
       <c r="C10" s="2">
         <v>168.286996660292</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2">
+        <v>5</v>
+      </c>
       <c r="E10" s="1">
         <v>27.240373277048501</v>
       </c>
@@ -627,9 +643,11 @@
         <v>73</v>
       </c>
       <c r="C11" s="2">
-        <v>133.73564501299799</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>252.44587720000001</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E11" s="1">
         <v>25.492714754184998</v>
       </c>
@@ -646,11 +664,13 @@
       <c r="C12" s="2">
         <v>127.599332435948</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="5">
+      <c r="D12" s="2">
+        <v>5</v>
+      </c>
+      <c r="E12" s="4">
         <v>43.528285950004403</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="4"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -663,7 +683,9 @@
       <c r="C13" s="2">
         <v>138.75067992984501</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E13" s="1">
         <v>31.5955147096304</v>
       </c>
@@ -680,7 +702,9 @@
       <c r="C14" s="2">
         <v>194.953547661166</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E14" s="1">
         <v>17.325176566538399</v>
       </c>
@@ -697,11 +721,13 @@
       <c r="C15" s="2">
         <v>54.853617324948502</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="5">
+      <c r="D15" s="2">
+        <v>12</v>
+      </c>
+      <c r="E15" s="4">
         <v>83.766171342698598</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="4"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -714,7 +740,9 @@
       <c r="C16" s="2">
         <v>186.03038171599499</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2">
+        <v>29</v>
+      </c>
       <c r="E16" s="1">
         <v>24.480455438778002</v>
       </c>
@@ -731,7 +759,9 @@
       <c r="C17" s="2">
         <v>228.79245290143001</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2">
+        <v>8</v>
+      </c>
       <c r="E17" s="1">
         <v>21.725655339851698</v>
       </c>
@@ -748,7 +778,9 @@
       <c r="C18" s="2">
         <v>155.64037403221101</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>21</v>
+      </c>
       <c r="E18" s="1">
         <v>22.237363952673899</v>
       </c>
@@ -766,10 +798,10 @@
         <v>1778.9391406623199</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>87.286457851523593</v>
       </c>
-      <c r="F19" s="5"/>
+      <c r="F19" s="4"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -781,13 +813,30 @@
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>201.46657478850699</v>
       </c>
-      <c r="F20" s="5"/>
+      <c r="F20" s="4"/>
       <c r="G20" s="1">
         <v>2314</v>
       </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="3">
+        <v>42</v>
+      </c>
+      <c r="C21" s="1">
+        <v>208.527440167495</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -810,4 +859,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48B6712-9572-4C63-AC40-0AC735EEC25F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28281671-B890-4997-81B3-F0AB767B565B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E29FDA5-7022-459C-91BF-AE1CECF843EB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>